--- a/Daily_plan/2019/06_jun/June.xlsx
+++ b/Daily_plan/2019/06_jun/June.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
   <si>
     <t xml:space="preserve">Week_05</t>
   </si>
@@ -89,21 +89,39 @@
     <t xml:space="preserve">Null pointers</t>
   </si>
   <si>
+    <t xml:space="preserve">Null pointer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pointers and arrays</t>
   </si>
   <si>
+    <t xml:space="preserve">Pointer and array</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pointer arithmetic and array indexing</t>
   </si>
   <si>
+    <t xml:space="preserve">pointer arithmetic and array index</t>
+  </si>
+  <si>
     <t xml:space="preserve">C-style string symbolic constants</t>
   </si>
   <si>
+    <t xml:space="preserve">Cstyle string constant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dynamic memory allocation with new and delete</t>
   </si>
   <si>
+    <t xml:space="preserve">Dynamic memory allocation </t>
+  </si>
+  <si>
     <t xml:space="preserve">Dynamically allocating arrays</t>
   </si>
   <si>
+    <t xml:space="preserve">Dynamic array</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pointers and const</t>
   </si>
   <si>
@@ -137,69 +155,66 @@
     <t xml:space="preserve">Data Structure</t>
   </si>
   <si>
+    <t xml:space="preserve">Stack using linked list using C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack using linked list using C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queue using linked list using C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queue using linked list using C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscellaneous Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Task                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acual Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> % Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan Hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceed Hrs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stack</t>
   </si>
   <si>
-    <t xml:space="preserve">Queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circular linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary search tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily Sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miscellaneous Activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-06-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily Task                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acual Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> % Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan Hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exceed Hrs</t>
-  </si>
-  <si>
     <t xml:space="preserve">NYS</t>
   </si>
   <si>
@@ -207,6 +222,15 @@
   </si>
   <si>
     <t xml:space="preserve">Installing the python3.5, uninstall 2 and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting, phone, python session</t>
   </si>
   <si>
     <t xml:space="preserve">Arrays (Part I)</t>
@@ -570,22 +594,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.9795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,96 +771,132 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" s="12" t="n">
         <v>0.75</v>
       </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E12" s="12" t="n">
         <v>0.75</v>
       </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E13" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E14" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="12" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E15" s="12" t="n">
         <v>0.25</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="12" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
@@ -849,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -863,7 +924,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -877,7 +938,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -891,7 +952,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
@@ -905,7 +966,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
@@ -919,7 +980,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
@@ -933,7 +994,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
@@ -947,7 +1008,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -961,7 +1022,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
@@ -973,7 +1034,7 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
@@ -985,12 +1046,12 @@
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="12"/>
     </row>
@@ -999,12 +1060,12 @@
         <v>2</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="12"/>
     </row>
@@ -1013,12 +1074,12 @@
         <v>3</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="11"/>
       <c r="E29" s="12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="12"/>
     </row>
@@ -1027,47 +1088,45 @@
         <v>4</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="11"/>
       <c r="E30" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" s="12"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="11"/>
       <c r="E32" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F32" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
@@ -1079,21 +1138,19 @@
         <v>1</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="11"/>
       <c r="E34" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="12" t="n">
-        <v>0.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
-        <v>46</v>
+      <c r="B35" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
@@ -1105,139 +1162,157 @@
         <v>1</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="C36" s="10"/>
       <c r="D36" s="11"/>
       <c r="E36" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F36" s="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="F36" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="A37" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F37" s="12" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F38" s="12" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+      <c r="E38" s="0" t="n">
+        <f aca="false">SUM(E3:E37)</f>
+        <v>40</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <f aca="false">SUM(F3:F37)</f>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F39" s="12" t="n">
+      <c r="B41" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12"/>
+      <c r="B42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12" t="n">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="0" t="n">
-        <f aca="false">SUM(E3:E39)</f>
-        <v>40</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <f aca="false">SUM(F3:F39)</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12"/>
-      <c r="B44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+      <c r="B44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D45" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E45" s="12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G45" s="17"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D46" s="11" t="n">
         <v>1</v>
@@ -1246,40 +1321,40 @@
         <v>0.5</v>
       </c>
       <c r="F46" s="12" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G46" s="17"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D47" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E47" s="12" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F47" s="12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D48" s="11" t="n">
         <v>1</v>
@@ -1288,56 +1363,46 @@
         <v>0.5</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G48" s="17"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="12" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F49" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G49" s="17"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="D50" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="12" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E50" s="18" t="n">
+        <v>2</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G50" s="17"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12"/>
       <c r="B51" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
@@ -1350,26 +1415,24 @@
         <v>1</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="11" t="n">
+        <v>65</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="E52" s="18" t="n">
-        <v>2</v>
-      </c>
       <c r="F52" s="12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G52" s="17"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12"/>
       <c r="B53" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
@@ -1382,24 +1445,26 @@
         <v>1</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="D54" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E54" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="12" t="n">
         <v>0</v>
-      </c>
-      <c r="F54" s="12" t="n">
-        <v>0.5</v>
       </c>
       <c r="G54" s="17"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12"/>
-      <c r="B55" s="5" t="s">
-        <v>46</v>
+      <c r="B55" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
@@ -1412,83 +1477,366 @@
         <v>1</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="E58" s="21" t="n">
+        <f aca="false">SUM(E42:E57)</f>
+        <v>7.75</v>
+      </c>
+      <c r="F58" s="21" t="n">
+        <f aca="false">SUM(F42:F57)</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="17"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" s="10" t="s">
+      <c r="E61" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12"/>
+      <c r="B62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F63" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="17"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F64" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="17"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F65" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F66" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F67" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F68" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="12"/>
+      <c r="B69" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="17"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="12"/>
+      <c r="B71" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F58" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="n">
+      <c r="C72" s="13"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F72" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="17"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="12"/>
+      <c r="B73" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="12"/>
+      <c r="G74" s="17"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12"/>
+      <c r="B75" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F76" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="17"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F59" s="12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G59" s="17"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="E60" s="21" t="n">
-        <f aca="false">SUM(E44:E59)</f>
-        <v>7.75</v>
-      </c>
-      <c r="F60" s="21" t="n">
-        <f aca="false">SUM(F44:F59)</f>
-        <v>6.75</v>
+      <c r="B77" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" s="17"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="E78" s="21" t="n">
+        <f aca="false">SUM(E62:E77)</f>
+        <v>8.25</v>
+      </c>
+      <c r="F78" s="21" t="n">
+        <f aca="false">SUM(F62:F77)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1515,12 +1863,18 @@
     <hyperlink ref="B23" r:id="rId20" display="An introduction to std::array"/>
     <hyperlink ref="B24" r:id="rId21" display="An introduction to std::vector"/>
     <hyperlink ref="B25" r:id="rId22" display="Chapter 6 comprehensive quiz"/>
-    <hyperlink ref="B45" r:id="rId23" display="Arrays (Part II)and (Part I)"/>
-    <hyperlink ref="B46" r:id="rId24" display="Arrays and loops"/>
-    <hyperlink ref="B47" r:id="rId25" display="Sorting an array using selection sort"/>
-    <hyperlink ref="B48" r:id="rId26" display="Multidimensional arrays"/>
-    <hyperlink ref="B49" r:id="rId27" display="C-style strings"/>
-    <hyperlink ref="B50" r:id="rId28" display="Introduction to pointers"/>
+    <hyperlink ref="B43" r:id="rId23" display="Arrays (Part II)and (Part I)"/>
+    <hyperlink ref="B44" r:id="rId24" display="Arrays and loops"/>
+    <hyperlink ref="B45" r:id="rId25" display="Sorting an array using selection sort"/>
+    <hyperlink ref="B46" r:id="rId26" display="Multidimensional arrays"/>
+    <hyperlink ref="B47" r:id="rId27" display="C-style strings"/>
+    <hyperlink ref="B48" r:id="rId28" display="Introduction to pointers"/>
+    <hyperlink ref="B63" r:id="rId29" display="Null pointers"/>
+    <hyperlink ref="B64" r:id="rId30" display="Pointers and arrays"/>
+    <hyperlink ref="B65" r:id="rId31" display="Pointer arithmetic and array indexing"/>
+    <hyperlink ref="B66" r:id="rId32" display="C-style string symbolic constants"/>
+    <hyperlink ref="B67" r:id="rId33" display="Dynamic memory allocation with new and delete"/>
+    <hyperlink ref="B68" r:id="rId34" display="Dynamically allocating arrays"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1545,14 +1899,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,7 +1915,7 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,7 +1965,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="9" t="s">
@@ -1624,25 +1978,25 @@
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,16 +2005,16 @@
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,7 +2023,7 @@
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,16 +2032,16 @@
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,16 +2050,16 @@
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,7 +2068,7 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,7 +2077,7 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +2086,7 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,16 +2095,16 @@
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_plan/2019/06_jun/June.xlsx
+++ b/Daily_plan/2019/06_jun/June.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="90">
   <si>
     <t xml:space="preserve">Week_05</t>
   </si>
@@ -230,7 +230,40 @@
     <t xml:space="preserve">18-06-2019</t>
   </si>
   <si>
+    <t xml:space="preserve">Started with the activity need to procced</t>
+  </si>
+  <si>
     <t xml:space="preserve">Meeting, phone, python session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point and const </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const reference and passing in function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pointer access member of struct / class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pointer to pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting, social</t>
   </si>
   <si>
     <t xml:space="preserve">Arrays (Part I)</t>
@@ -594,23 +627,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.9795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.0663265306123"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,7 +924,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>13</v>
       </c>
@@ -905,7 +938,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>14</v>
       </c>
@@ -919,7 +952,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>15</v>
       </c>
@@ -933,7 +966,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>16</v>
       </c>
@@ -947,7 +980,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>17</v>
       </c>
@@ -961,7 +994,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>18</v>
       </c>
@@ -975,7 +1008,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>19</v>
       </c>
@@ -1053,7 +1086,9 @@
       <c r="E27" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="12" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
@@ -1120,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,7 +1205,7 @@
         <v>2.5</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,7 +1221,7 @@
         <v>4.5</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,7 +1231,7 @@
       </c>
       <c r="F38" s="0" t="n">
         <f aca="false">SUM(F3:F37)</f>
-        <v>9.25</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,12 +1747,18 @@
       <c r="B70" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="11"/>
+      <c r="C70" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="11" t="n">
+        <v>0.4</v>
+      </c>
       <c r="E70" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F70" s="12"/>
+      <c r="F70" s="12" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G70" s="17"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,8 +1779,12 @@
       <c r="B72" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="11"/>
+      <c r="C72" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E72" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -1766,12 +1811,18 @@
       <c r="B74" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="11"/>
+      <c r="C74" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E74" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F74" s="12"/>
+      <c r="F74" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="G74" s="17"/>
     </row>
     <row r="75" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,7 +1865,7 @@
         <v>54</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D77" s="11" t="n">
         <v>1</v>
@@ -1836,7 +1887,313 @@
       </c>
       <c r="F78" s="21" t="n">
         <f aca="false">SUM(F62:F77)</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="12"/>
+      <c r="B82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F83" s="12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G83" s="17"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F84" s="12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G84" s="17"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F85" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G85" s="17"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F86" s="12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G86" s="17"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F87" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G87" s="17"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="12" t="n">
         <v>6</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F88" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G88" s="17"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F89" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G89" s="17"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="12"/>
+      <c r="B90" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" s="12"/>
+      <c r="G91" s="17"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="12"/>
+      <c r="B92" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F93" s="12"/>
+      <c r="G93" s="17"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="12"/>
+      <c r="B94" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F95" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G95" s="17"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G96" s="17"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="E97" s="21" t="n">
+        <f aca="false">SUM(E82:E96)</f>
+        <v>8</v>
+      </c>
+      <c r="F97" s="21" t="n">
+        <f aca="false">SUM(F82:F96)</f>
+        <v>5.1</v>
       </c>
     </row>
   </sheetData>
@@ -1875,6 +2232,13 @@
     <hyperlink ref="B66" r:id="rId32" display="C-style string symbolic constants"/>
     <hyperlink ref="B67" r:id="rId33" display="Dynamic memory allocation with new and delete"/>
     <hyperlink ref="B68" r:id="rId34" display="Dynamically allocating arrays"/>
+    <hyperlink ref="B83" r:id="rId35" display="Pointers and const"/>
+    <hyperlink ref="B84" r:id="rId36" display="Reference variables"/>
+    <hyperlink ref="B85" r:id="rId37" display="References and const"/>
+    <hyperlink ref="B86" r:id="rId38" display="Member selection with pointers and references"/>
+    <hyperlink ref="B87" r:id="rId39" display="For each loops"/>
+    <hyperlink ref="B88" r:id="rId40" display="Void pointers"/>
+    <hyperlink ref="B89" r:id="rId41" display="Pointers to pointers and dynamic multidimensional arrays"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1899,14 +2263,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,7 +2279,7 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1965,7 +2329,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="9" t="s">
@@ -1983,7 +2347,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="9" t="s">
@@ -1992,7 +2356,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="9" t="s">
@@ -2010,7 +2374,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
@@ -2037,7 +2401,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
@@ -2055,7 +2419,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
@@ -2100,7 +2464,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">

--- a/Daily_plan/2019/06_jun/June.xlsx
+++ b/Daily_plan/2019/06_jun/June.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="94">
   <si>
     <t xml:space="preserve">Week_05</t>
   </si>
@@ -125,24 +125,45 @@
     <t xml:space="preserve">Pointers and const</t>
   </si>
   <si>
+    <t xml:space="preserve">Point and const </t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference variables</t>
   </si>
   <si>
+    <t xml:space="preserve">reference</t>
+  </si>
+  <si>
     <t xml:space="preserve">References and const</t>
   </si>
   <si>
+    <t xml:space="preserve">const reference and passing in function</t>
+  </si>
+  <si>
     <t xml:space="preserve">Member selection with pointers and references</t>
   </si>
   <si>
+    <t xml:space="preserve">pointer access member of struct / class</t>
+  </si>
+  <si>
     <t xml:space="preserve">For each loops</t>
   </si>
   <si>
+    <t xml:space="preserve">For each</t>
+  </si>
+  <si>
     <t xml:space="preserve">Void pointers</t>
   </si>
   <si>
+    <t xml:space="preserve">void pointer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pointers to pointers and dynamic multidimensional arrays</t>
   </si>
   <si>
+    <t xml:space="preserve">pointer to pointer</t>
+  </si>
+  <si>
     <t xml:space="preserve">An introduction to std::array</t>
   </si>
   <si>
@@ -173,6 +194,9 @@
     <t xml:space="preserve">Task</t>
   </si>
   <si>
+    <t xml:space="preserve">Completed the task </t>
+  </si>
+  <si>
     <t xml:space="preserve">Shell</t>
   </si>
   <si>
@@ -242,28 +266,16 @@
     <t xml:space="preserve">19-06-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Point and const </t>
-  </si>
-  <si>
-    <t xml:space="preserve">reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">const reference and passing in function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pointer access member of struct / class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pointer to pointer</t>
+    <t xml:space="preserve">Skeleton is completed</t>
   </si>
   <si>
     <t xml:space="preserve">Meeting, social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscellaneous Activity (Knowledge updation based on CV)</t>
   </si>
   <si>
     <t xml:space="preserve">Arrays (Part I)</t>
@@ -627,23 +639,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.0663265306123"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,103 +942,145 @@
       <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E16" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="12" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E17" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="12" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E18" s="12" t="n">
         <v>0.25</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="12" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E19" s="12" t="n">
         <v>0.25</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="12" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E20" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E21" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="12" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E22" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
@@ -1041,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -1055,7 +1108,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
@@ -1067,7 +1120,7 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
@@ -1079,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="11"/>
@@ -1087,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="11"/>
@@ -1109,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="11"/>
@@ -1123,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="11"/>
@@ -1135,7 +1188,7 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
@@ -1147,10 +1200,14 @@
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E32" s="12" t="n">
         <v>1</v>
       </c>
@@ -1161,7 +1218,7 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
@@ -1173,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="11"/>
@@ -1185,7 +1242,7 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
@@ -1197,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
@@ -1205,7 +1262,7 @@
         <v>2.5</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
@@ -1221,7 +1278,7 @@
         <v>4.5</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,15 +1288,15 @@
       </c>
       <c r="F38" s="0" t="n">
         <f aca="false">SUM(F3:F37)</f>
-        <v>13.5</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,22 +1304,22 @@
         <v>2</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,7 +1462,7 @@
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12"/>
       <c r="B49" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
@@ -1418,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D50" s="11" t="n">
         <v>0</v>
@@ -1437,7 +1494,7 @@
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12"/>
       <c r="B51" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
@@ -1450,10 +1507,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="18" t="n">
@@ -1467,7 +1524,7 @@
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12"/>
       <c r="B53" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
@@ -1480,10 +1537,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D54" s="11" t="n">
         <v>0</v>
@@ -1499,7 +1556,7 @@
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12"/>
       <c r="B55" s="14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
@@ -1512,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D56" s="11" t="n">
         <v>1</v>
@@ -1533,10 +1590,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D57" s="11" t="n">
         <v>1</v>
@@ -1563,10 +1620,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,22 +1631,22 @@
         <v>2</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1789,7 @@
     <row r="69" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12"/>
       <c r="B69" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
@@ -1745,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D70" s="11" t="n">
         <v>0.4</v>
@@ -1764,7 +1821,7 @@
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="12"/>
       <c r="B71" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
@@ -1777,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D72" s="11" t="n">
         <v>1</v>
@@ -1796,7 +1853,7 @@
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="12"/>
       <c r="B73" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
@@ -1809,10 +1866,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D74" s="11" t="n">
         <v>0</v>
@@ -1828,7 +1885,7 @@
     <row r="75" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12"/>
       <c r="B75" s="14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
@@ -1841,10 +1898,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D76" s="11" t="n">
         <v>1</v>
@@ -1862,10 +1919,10 @@
         <v>2</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D77" s="11" t="n">
         <v>1</v>
@@ -1892,10 +1949,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,22 +1960,22 @@
         <v>2</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,7 +1997,7 @@
         <v>33</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D83" s="11" t="n">
         <v>1</v>
@@ -1958,10 +2015,10 @@
         <v>2</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D84" s="11" t="n">
         <v>1</v>
@@ -1979,10 +2036,10 @@
         <v>3</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D85" s="11" t="n">
         <v>1</v>
@@ -2000,10 +2057,10 @@
         <v>4</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D86" s="11" t="n">
         <v>1</v>
@@ -2021,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D87" s="11" t="n">
         <v>1</v>
@@ -2042,10 +2099,10 @@
         <v>6</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D88" s="11" t="n">
         <v>1</v>
@@ -2063,10 +2120,10 @@
         <v>7</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D89" s="11" t="n">
         <v>1</v>
@@ -2082,7 +2139,7 @@
     <row r="90" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="12"/>
       <c r="B90" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
@@ -2095,20 +2152,26 @@
         <v>1</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" s="11" t="n">
+        <v>0.7</v>
+      </c>
       <c r="E91" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F91" s="12"/>
+      <c r="F91" s="12" t="n">
+        <v>1.5</v>
+      </c>
       <c r="G91" s="17"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="12"/>
       <c r="B92" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
@@ -2121,20 +2184,26 @@
         <v>1</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E93" s="18" t="n">
         <v>1.5</v>
       </c>
-      <c r="F93" s="12"/>
+      <c r="F93" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="G93" s="17"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="12"/>
       <c r="B94" s="14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
@@ -2147,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D95" s="11" t="n">
         <v>1</v>
@@ -2168,10 +2237,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D96" s="11" t="n">
         <v>1</v>
@@ -2193,7 +2262,199 @@
       </c>
       <c r="F97" s="21" t="n">
         <f aca="false">SUM(F82:F96)</f>
-        <v>5.1</v>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="12"/>
+      <c r="B101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="17"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="17"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" s="12"/>
+      <c r="G104" s="17"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="12"/>
+      <c r="B105" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="17"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="12"/>
+      <c r="B107" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" s="12"/>
+      <c r="G108" s="17"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="12"/>
+      <c r="B109" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F110" s="12"/>
+      <c r="G110" s="17"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" s="19"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F111" s="12"/>
+      <c r="G111" s="17"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="E112" s="21" t="n">
+        <f aca="false">SUM(E101:E111)</f>
+        <v>8</v>
+      </c>
+      <c r="F112" s="21" t="n">
+        <f aca="false">SUM(F101:F111)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2239,6 +2500,9 @@
     <hyperlink ref="B87" r:id="rId39" display="For each loops"/>
     <hyperlink ref="B88" r:id="rId40" display="Void pointers"/>
     <hyperlink ref="B89" r:id="rId41" display="Pointers to pointers and dynamic multidimensional arrays"/>
+    <hyperlink ref="B102" r:id="rId42" display="An introduction to std::array"/>
+    <hyperlink ref="B103" r:id="rId43" display="An introduction to std::vector"/>
+    <hyperlink ref="B104" r:id="rId44" display="Chapter 6 comprehensive quiz"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -2263,14 +2527,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,7 +2543,7 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,7 +2593,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="9" t="s">
@@ -2347,7 +2611,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="9" t="s">
@@ -2356,7 +2620,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="9" t="s">
@@ -2374,7 +2638,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
@@ -2396,16 +2660,16 @@
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,16 +2678,16 @@
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,7 +2696,7 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,7 +2705,7 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,7 +2714,7 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,16 +2723,16 @@
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_plan/2019/06_jun/June.xlsx
+++ b/Daily_plan/2019/06_jun/June.xlsx
@@ -21,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="94">
-  <si>
-    <t xml:space="preserve">Week_05</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="101">
+  <si>
+    <t xml:space="preserve">Week_03</t>
   </si>
   <si>
     <t xml:space="preserve"> 17-06-2019 to 21-06-2019</t>
@@ -212,70 +212,91 @@
     <t xml:space="preserve">Miscellaneous Activity</t>
   </si>
   <si>
+    <t xml:space="preserve">Fri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Task                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acual Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> % Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan Hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revise Stack with C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revise Queue with C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack with C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscellaneous Activity (Knowledge updation based on CV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went through C++ basic, Attended online test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revised the project and technical part and went through the C++ topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skeleton is completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting, social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started with the activity need to procced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting, phone, python session</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mon</t>
   </si>
   <si>
     <t xml:space="preserve">17-06-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily Task                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acual Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> % Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan Hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exceed Hrs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stack</t>
   </si>
   <si>
-    <t xml:space="preserve">NYS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assignment skeleton completed</t>
   </si>
   <si>
     <t xml:space="preserve">Installing the python3.5, uninstall 2 and </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-06-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Started with the activity need to procced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting, phone, python session</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-06-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skeleton is completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting, social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-06-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miscellaneous Activity (Knowledge updation based on CV)</t>
   </si>
   <si>
     <t xml:space="preserve">Arrays (Part I)</t>
@@ -461,7 +482,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -528,10 +549,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -639,10 +656,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -653,8 +670,7 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,7 +711,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
@@ -715,7 +731,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>2</v>
       </c>
@@ -735,7 +751,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>3</v>
       </c>
@@ -755,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>4</v>
       </c>
@@ -775,7 +791,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>5</v>
       </c>
@@ -795,7 +811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>6</v>
       </c>
@@ -815,7 +831,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>7</v>
       </c>
@@ -835,7 +851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>8</v>
       </c>
@@ -855,7 +871,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
@@ -875,7 +891,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>10</v>
       </c>
@@ -895,7 +911,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>11</v>
       </c>
@@ -915,7 +931,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>12</v>
       </c>
@@ -935,7 +951,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>13</v>
       </c>
@@ -955,7 +971,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>14</v>
       </c>
@@ -975,7 +991,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>15</v>
       </c>
@@ -995,7 +1011,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>16</v>
       </c>
@@ -1015,7 +1031,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>17</v>
       </c>
@@ -1035,7 +1051,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>18</v>
       </c>
@@ -1055,7 +1071,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>19</v>
       </c>
@@ -1169,7 +1185,9 @@
       <c r="E29" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
@@ -1262,7 +1280,7 @@
         <v>2.5</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1278,7 +1296,7 @@
         <v>4.5</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,7 +1306,7 @@
       </c>
       <c r="F38" s="0" t="n">
         <f aca="false">SUM(F3:F37)</f>
-        <v>20.1</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,9 +1335,6 @@
       </c>
       <c r="F41" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,895 +1346,800 @@
       <c r="D42" s="7"/>
       <c r="E42" s="8"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="n">
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="11" t="n">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G43" s="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="n">
         <v>2</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="11" t="n">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F44" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="17"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="n">
         <v>3</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="11" t="n">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F46" s="12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G46" s="17"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="12" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F47" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G47" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F48" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12"/>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12"/>
+      <c r="B50" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="E53" s="20" t="n">
+        <f aca="false">SUM(E42:E52)</f>
+        <v>7</v>
+      </c>
+      <c r="F53" s="20" t="n">
+        <f aca="false">SUM(F42:F52)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12"/>
+      <c r="B57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F59" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="12"/>
+      <c r="B61" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="18" t="n">
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="16"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="F50" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12"/>
-      <c r="B51" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12"/>
-      <c r="B53" s="5" t="s">
+      <c r="F62" s="12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="12"/>
+      <c r="B63" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="17"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12"/>
-      <c r="B55" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F56" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G56" s="17"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F57" s="12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="E58" s="21" t="n">
-        <f aca="false">SUM(E42:E57)</f>
-        <v>7.75</v>
-      </c>
-      <c r="F58" s="21" t="n">
-        <f aca="false">SUM(F42:F57)</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12"/>
-      <c r="B62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F63" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G63" s="17"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="12" t="n">
-        <v>0.75</v>
+        <v>0</v>
+      </c>
+      <c r="E64" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G64" s="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="12" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F65" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G65" s="17"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F66" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F67" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F66" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G66" s="17"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F67" s="12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G67" s="17"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F68" s="12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G68" s="17"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12"/>
-      <c r="B69" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E70" s="18" t="n">
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="E68" s="20" t="n">
+        <f aca="false">SUM(E57:E67)</f>
+        <v>8</v>
+      </c>
+      <c r="F68" s="20" t="n">
+        <f aca="false">SUM(F57:F67)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="12" t="n">
+      <c r="B71" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12"/>
+      <c r="B72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="16"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F73" s="12" t="n">
         <v>0.75</v>
       </c>
-      <c r="G70" s="17"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12"/>
-      <c r="B71" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F72" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="17"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12"/>
-      <c r="B73" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D74" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="18" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E74" s="12" t="n">
+        <v>0.5</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="17"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12"/>
-      <c r="B75" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F75" s="12" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>61</v>
+        <v>4</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D76" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E76" s="12" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G76" s="17"/>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F78" s="12" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F79" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="12"/>
+      <c r="B80" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="16"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E81" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G77" s="17"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="E78" s="21" t="n">
-        <f aca="false">SUM(E62:E77)</f>
-        <v>8.25</v>
-      </c>
-      <c r="F78" s="21" t="n">
-        <f aca="false">SUM(F62:F77)</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F81" s="12" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="12"/>
       <c r="B82" s="5" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
       <c r="E82" s="8"/>
       <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>34</v>
+      <c r="B83" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="D83" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="12" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E83" s="17" t="n">
+        <v>1.5</v>
       </c>
       <c r="F83" s="12" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G83" s="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F84" s="12" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G84" s="17"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="16"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D85" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E85" s="12" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G85" s="17"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="D86" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E86" s="12" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G86" s="17"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D87" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F87" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G87" s="17"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D88" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F88" s="12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G88" s="17"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="E87" s="20" t="n">
+        <f aca="false">SUM(E72:E86)</f>
+        <v>8</v>
+      </c>
+      <c r="F87" s="20" t="n">
+        <f aca="false">SUM(F72:F86)</f>
+        <v>6.6</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D89" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F89" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G89" s="17"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12"/>
-      <c r="B90" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
+      <c r="A89" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D91" s="11" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E91" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F91" s="12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G91" s="17"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="16"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="12"/>
-      <c r="B92" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
+      <c r="A92" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F92" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D93" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" s="18" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="E93" s="12" t="n">
+        <v>0.75</v>
       </c>
       <c r="F93" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" s="17"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12"/>
-      <c r="B94" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
+      <c r="A94" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F94" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>61</v>
+        <v>4</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D95" s="11" t="n">
         <v>1</v>
@@ -2230,231 +2150,505 @@
       <c r="F95" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="G95" s="17"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F96" s="12" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F97" s="12" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="12"/>
+      <c r="B98" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" s="11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E99" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D96" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F96" s="12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G96" s="17"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="E97" s="21" t="n">
-        <f aca="false">SUM(E82:E96)</f>
-        <v>8</v>
-      </c>
-      <c r="F97" s="21" t="n">
-        <f aca="false">SUM(F82:F96)</f>
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>83</v>
+      <c r="F99" s="12" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12"/>
-      <c r="B101" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="16"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F101" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F102" s="12"/>
-      <c r="G102" s="17"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="16"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F103" s="12"/>
-      <c r="G103" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" s="12"/>
-      <c r="G104" s="17"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="12"/>
-      <c r="B105" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="16"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F105" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="18" t="n">
+        <v>62</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F106" s="12"/>
-      <c r="G106" s="17"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12"/>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="E107" s="20" t="n">
+        <f aca="false">SUM(E91:E106)</f>
+        <v>8.25</v>
+      </c>
+      <c r="F107" s="20" t="n">
+        <f aca="false">SUM(F91:F106)</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="12"/>
+      <c r="B111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="16"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" s="12" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F113" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F114" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F115" s="12" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" s="12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F116" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F117" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="12"/>
+      <c r="B118" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="16"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D119" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F119" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="12"/>
+      <c r="B120" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="16"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="12"/>
+      <c r="B122" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B108" s="10" t="s">
+      <c r="C122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="16"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="18" t="n">
+      <c r="C123" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D123" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="F108" s="12"/>
-      <c r="G108" s="17"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="12"/>
-      <c r="B109" s="14" t="s">
+      <c r="E123" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="12"/>
+      <c r="B124" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B110" s="10" t="s">
+      <c r="C124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="16"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F110" s="12"/>
-      <c r="G110" s="17"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12" t="n">
+      <c r="C125" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D125" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F125" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C111" s="19"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F111" s="12"/>
-      <c r="G111" s="17"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
-      <c r="E112" s="21" t="n">
-        <f aca="false">SUM(E101:E111)</f>
-        <v>8</v>
-      </c>
-      <c r="F112" s="21" t="n">
-        <f aca="false">SUM(F101:F111)</f>
-        <v>0</v>
+      <c r="B126" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D126" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F126" s="12" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="E127" s="20" t="n">
+        <f aca="false">SUM(E111:E126)</f>
+        <v>7.75</v>
+      </c>
+      <c r="F127" s="20" t="n">
+        <f aca="false">SUM(F111:F126)</f>
+        <v>6.75</v>
       </c>
     </row>
   </sheetData>
@@ -2481,28 +2675,31 @@
     <hyperlink ref="B23" r:id="rId20" display="An introduction to std::array"/>
     <hyperlink ref="B24" r:id="rId21" display="An introduction to std::vector"/>
     <hyperlink ref="B25" r:id="rId22" display="Chapter 6 comprehensive quiz"/>
-    <hyperlink ref="B43" r:id="rId23" display="Arrays (Part II)and (Part I)"/>
-    <hyperlink ref="B44" r:id="rId24" display="Arrays and loops"/>
-    <hyperlink ref="B45" r:id="rId25" display="Sorting an array using selection sort"/>
-    <hyperlink ref="B46" r:id="rId26" display="Multidimensional arrays"/>
-    <hyperlink ref="B47" r:id="rId27" display="C-style strings"/>
-    <hyperlink ref="B48" r:id="rId28" display="Introduction to pointers"/>
-    <hyperlink ref="B63" r:id="rId29" display="Null pointers"/>
-    <hyperlink ref="B64" r:id="rId30" display="Pointers and arrays"/>
-    <hyperlink ref="B65" r:id="rId31" display="Pointer arithmetic and array indexing"/>
-    <hyperlink ref="B66" r:id="rId32" display="C-style string symbolic constants"/>
-    <hyperlink ref="B67" r:id="rId33" display="Dynamic memory allocation with new and delete"/>
-    <hyperlink ref="B68" r:id="rId34" display="Dynamically allocating arrays"/>
-    <hyperlink ref="B83" r:id="rId35" display="Pointers and const"/>
-    <hyperlink ref="B84" r:id="rId36" display="Reference variables"/>
-    <hyperlink ref="B85" r:id="rId37" display="References and const"/>
-    <hyperlink ref="B86" r:id="rId38" display="Member selection with pointers and references"/>
-    <hyperlink ref="B87" r:id="rId39" display="For each loops"/>
-    <hyperlink ref="B88" r:id="rId40" display="Void pointers"/>
-    <hyperlink ref="B89" r:id="rId41" display="Pointers to pointers and dynamic multidimensional arrays"/>
-    <hyperlink ref="B102" r:id="rId42" display="An introduction to std::array"/>
-    <hyperlink ref="B103" r:id="rId43" display="An introduction to std::vector"/>
-    <hyperlink ref="B104" r:id="rId44" display="Chapter 6 comprehensive quiz"/>
+    <hyperlink ref="B43" r:id="rId23" display="An introduction to std::array"/>
+    <hyperlink ref="B44" r:id="rId24" display="An introduction to std::vector"/>
+    <hyperlink ref="B45" r:id="rId25" display="Chapter 6 comprehensive quiz"/>
+    <hyperlink ref="B58" r:id="rId26" display="An introduction to std::array"/>
+    <hyperlink ref="B59" r:id="rId27" display="An introduction to std::vector"/>
+    <hyperlink ref="B60" r:id="rId28" display="Chapter 6 comprehensive quiz"/>
+    <hyperlink ref="B73" r:id="rId29" display="Pointers and const"/>
+    <hyperlink ref="B74" r:id="rId30" display="Reference variables"/>
+    <hyperlink ref="B75" r:id="rId31" display="References and const"/>
+    <hyperlink ref="B76" r:id="rId32" display="Member selection with pointers and references"/>
+    <hyperlink ref="B77" r:id="rId33" display="For each loops"/>
+    <hyperlink ref="B78" r:id="rId34" display="Void pointers"/>
+    <hyperlink ref="B79" r:id="rId35" display="Pointers to pointers and dynamic multidimensional arrays"/>
+    <hyperlink ref="B92" r:id="rId36" display="Null pointers"/>
+    <hyperlink ref="B93" r:id="rId37" display="Pointers and arrays"/>
+    <hyperlink ref="B94" r:id="rId38" display="Pointer arithmetic and array indexing"/>
+    <hyperlink ref="B95" r:id="rId39" display="C-style string symbolic constants"/>
+    <hyperlink ref="B96" r:id="rId40" display="Dynamic memory allocation with new and delete"/>
+    <hyperlink ref="B97" r:id="rId41" display="Dynamically allocating arrays"/>
+    <hyperlink ref="B112" r:id="rId42" display="Arrays (Part II)and (Part I)"/>
+    <hyperlink ref="B113" r:id="rId43" display="Arrays and loops"/>
+    <hyperlink ref="B114" r:id="rId44" display="Sorting an array using selection sort"/>
+    <hyperlink ref="B115" r:id="rId45" display="Multidimensional arrays"/>
+    <hyperlink ref="B116" r:id="rId46" display="C-style strings"/>
+    <hyperlink ref="B117" r:id="rId47" display="Introduction to pointers"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -2533,204 +2730,204 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>85</v>
+      <c r="A1" s="21" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="n">
+      <c r="A2" s="21" t="n">
         <v>6.2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="n">
+      <c r="A3" s="21" t="n">
         <v>6.3</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="n">
+      <c r="A4" s="21" t="n">
         <v>6.4</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="n">
+      <c r="A5" s="21" t="n">
         <v>6.5</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="n">
+      <c r="A6" s="21" t="n">
         <v>6.6</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="n">
+      <c r="A7" s="21" t="n">
         <v>6.7</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="23"/>
+      <c r="A8" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="22"/>
       <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="n">
+      <c r="A9" s="21" t="n">
         <v>6.8</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="23"/>
+      <c r="A10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="22"/>
       <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="23"/>
+      <c r="A11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="22"/>
       <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="n">
+      <c r="A12" s="21" t="n">
         <v>6.9</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="23"/>
+      <c r="A13" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="22"/>
       <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
+      <c r="A14" s="21" t="n">
         <v>6.1</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="n">
+      <c r="A15" s="21" t="n">
         <v>6.11</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="23"/>
+      <c r="A16" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="22"/>
       <c r="C16" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="n">
+      <c r="A17" s="21" t="n">
         <v>6.12</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="23"/>
+      <c r="A18" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="22"/>
       <c r="C18" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="n">
+      <c r="A19" s="21" t="n">
         <v>6.13</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="n">
+      <c r="A20" s="21" t="n">
         <v>6.14</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="n">
+      <c r="A21" s="21" t="n">
         <v>6.15</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="n">
+      <c r="A22" s="21" t="n">
         <v>6.16</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="23"/>
+      <c r="A23" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="22"/>
       <c r="C23" s="9" t="s">
         <v>49</v>
       </c>

--- a/Daily_plan/2019/06_jun/June.xlsx
+++ b/Daily_plan/2019/06_jun/June.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week_3" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Week_4" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="106">
   <si>
     <t xml:space="preserve">Week_03</t>
   </si>
@@ -167,6 +167,9 @@
     <t xml:space="preserve">An introduction to std::array</t>
   </si>
   <si>
+    <t xml:space="preserve">NYS</t>
+  </si>
+  <si>
     <t xml:space="preserve">An introduction to std::vector</t>
   </si>
   <si>
@@ -179,12 +182,18 @@
     <t xml:space="preserve">Stack using linked list using C</t>
   </si>
   <si>
+    <t xml:space="preserve">stack</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stack using linked list using C++</t>
   </si>
   <si>
     <t xml:space="preserve">Queue using linked list using C</t>
   </si>
   <si>
+    <t xml:space="preserve">queue  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Queue using linked list using C++</t>
   </si>
   <si>
@@ -254,9 +263,6 @@
     <t xml:space="preserve">20-06-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">NYS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revised the project and technical part and went through the C++ topics</t>
   </si>
   <si>
@@ -299,31 +305,40 @@
     <t xml:space="preserve">Installing the python3.5, uninstall 2 and </t>
   </si>
   <si>
-    <t xml:space="preserve">Arrays (Part I)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrays (Part II)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.x</t>
+    <t xml:space="preserve"> 24-06-2019 to 28-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked list to contain pointer to object instead of data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked list using C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked list using C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circular linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queue is performed using seperate iterator, Tried to overload -&gt; operator but didn’t succeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scrum, python discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-06-2019</t>
   </si>
 </sst>
 </file>
@@ -334,7 +349,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -379,13 +394,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -482,7 +490,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -567,18 +575,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -658,19 +654,20 @@
   </sheetPr>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,45 +1095,63 @@
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E23" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="D24" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E24" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E25" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
@@ -1148,10 +1163,14 @@
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="11" t="n">
+        <v>0.8</v>
+      </c>
       <c r="E27" s="12" t="n">
         <v>4</v>
       </c>
@@ -1159,54 +1178,70 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E28" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="11" t="n">
+        <v>0.8</v>
+      </c>
       <c r="E29" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E30" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
@@ -1218,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D32" s="11" t="n">
         <v>1</v>
@@ -1236,7 +1271,7 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
@@ -1248,19 +1283,23 @@
         <v>1</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="11"/>
+      <c r="D34" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E34" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F34" s="12"/>
+      <c r="F34" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
@@ -1272,15 +1311,17 @@
         <v>1</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
+      <c r="D36" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E36" s="12" t="n">
         <v>2.5</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,15 +1329,17 @@
         <v>2</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+      <c r="D37" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E37" s="12" t="n">
         <v>4.5</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,15 +1349,15 @@
       </c>
       <c r="F38" s="0" t="n">
         <f aca="false">SUM(F3:F37)</f>
-        <v>26.6</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,19 +1365,19 @@
         <v>2</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,45 +1397,63 @@
       <c r="B43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
+      <c r="C43" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E43" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="n">
         <v>2</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
+      <c r="D44" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E44" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="n">
         <v>3</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E45" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F45" s="12"/>
+      <c r="F45" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12"/>
       <c r="B46" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
@@ -1404,47 +1465,63 @@
         <v>1</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E47" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="F47" s="12"/>
+      <c r="F47" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="n">
         <v>2</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
+      <c r="D48" s="11" t="n">
+        <v>0.8</v>
+      </c>
       <c r="E48" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="F48" s="12"/>
+      <c r="F48" s="12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="n">
         <v>3</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E49" s="17" t="n">
         <v>1.5</v>
       </c>
-      <c r="F49" s="12"/>
+      <c r="F49" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12"/>
       <c r="B50" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
@@ -1456,10 +1533,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D51" s="11" t="n">
         <v>1</v>
@@ -1476,12 +1553,14 @@
         <v>2</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="D52" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E52" s="12" t="n">
         <v>1</v>
       </c>
@@ -1498,7 +1577,7 @@
       </c>
       <c r="F53" s="20" t="n">
         <f aca="false">SUM(F42:F52)</f>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,10 +1588,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,19 +1599,19 @@
         <v>2</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,7 +1632,7 @@
         <v>47</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D58" s="11" t="n">
         <v>0</v>
@@ -1570,10 +1649,10 @@
         <v>2</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="D59" s="11" t="n">
         <v>0</v>
@@ -1590,10 +1669,10 @@
         <v>3</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D60" s="11" t="n">
         <v>0</v>
@@ -1608,7 +1687,7 @@
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12"/>
       <c r="B61" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
@@ -1620,10 +1699,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D62" s="11" t="n">
         <v>1</v>
@@ -1638,7 +1717,7 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12"/>
       <c r="B63" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
@@ -1650,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D64" s="11" t="n">
         <v>0</v>
@@ -1668,7 +1747,7 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12"/>
       <c r="B65" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
@@ -1680,10 +1759,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D66" s="11" t="n">
         <v>1</v>
@@ -1700,10 +1779,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D67" s="11" t="n">
         <v>1</v>
@@ -1735,10 +1814,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,19 +1825,19 @@
         <v>2</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,7 +1993,7 @@
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="12"/>
       <c r="B80" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
@@ -1926,10 +2005,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D81" s="11" t="n">
         <v>0.7</v>
@@ -1944,7 +2023,7 @@
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="12"/>
       <c r="B82" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
@@ -1956,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D83" s="11" t="n">
         <v>0</v>
@@ -1974,7 +2053,7 @@
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="12"/>
       <c r="B84" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
@@ -1986,10 +2065,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D85" s="11" t="n">
         <v>1</v>
@@ -2006,10 +2085,10 @@
         <v>2</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D86" s="11" t="n">
         <v>1</v>
@@ -2035,10 +2114,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,19 +2125,19 @@
         <v>2</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,7 +2273,7 @@
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="12"/>
       <c r="B98" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
@@ -2206,10 +2285,10 @@
         <v>1</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D99" s="11" t="n">
         <v>0.4</v>
@@ -2224,7 +2303,7 @@
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="12"/>
       <c r="B100" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
@@ -2236,10 +2315,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D101" s="11" t="n">
         <v>1</v>
@@ -2254,7 +2333,7 @@
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="12"/>
       <c r="B102" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
@@ -2266,10 +2345,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D103" s="11" t="n">
         <v>0</v>
@@ -2284,7 +2363,7 @@
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="12"/>
       <c r="B104" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
@@ -2296,10 +2375,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D105" s="11" t="n">
         <v>1</v>
@@ -2316,10 +2395,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D106" s="11" t="n">
         <v>1</v>
@@ -2345,10 +2424,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,19 +2435,19 @@
         <v>2</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,7 +2583,7 @@
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="12"/>
       <c r="B118" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
@@ -2516,10 +2595,10 @@
         <v>1</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D119" s="11" t="n">
         <v>0</v>
@@ -2534,7 +2613,7 @@
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="12"/>
       <c r="B120" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
@@ -2546,10 +2625,10 @@
         <v>1</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="17" t="n">
@@ -2562,7 +2641,7 @@
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="12"/>
       <c r="B122" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
@@ -2574,10 +2653,10 @@
         <v>1</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D123" s="11" t="n">
         <v>0</v>
@@ -2592,7 +2671,7 @@
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="12"/>
       <c r="B124" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
@@ -2604,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D125" s="11" t="n">
         <v>1</v>
@@ -2624,10 +2703,10 @@
         <v>2</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D126" s="11" t="n">
         <v>1</v>
@@ -2716,254 +2795,655 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.43877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
-        <v>92</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="9" t="s">
-        <v>93</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="B15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0" t="n">
+        <f aca="false">SUM(E3:E17)</f>
+        <v>40</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">SUM(F3:F18)</f>
         <v>6.5</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12"/>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E24" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" s="12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12"/>
+      <c r="B26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12"/>
+      <c r="B28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12" t="n">
+        <f aca="false">0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="E32" s="20" t="n">
+        <f aca="false">SUM(E23:E31)</f>
+        <v>8</v>
+      </c>
+      <c r="F32" s="20" t="n">
+        <f aca="false">SUM(F23:F31)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12"/>
+      <c r="B36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12"/>
+      <c r="B40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12"/>
+      <c r="B42" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="9" t="s">
-        <v>49</v>
+      <c r="C45" s="18"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12" t="n">
+        <f aca="false">0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="E46" s="20" t="n">
+        <f aca="false">SUM(E36:E45)</f>
+        <v>8</v>
+      </c>
+      <c r="F46" s="20" t="n">
+        <f aca="false">SUM(F36:F45)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="Arrays (Part I)"/>
-    <hyperlink ref="C2" r:id="rId2" display="Arrays (Part II)"/>
-    <hyperlink ref="C3" r:id="rId3" display="Arrays and loops"/>
-    <hyperlink ref="C4" r:id="rId4" display="Sorting an array using selection sort"/>
-    <hyperlink ref="C5" r:id="rId5" display="Multidimensional arrays"/>
-    <hyperlink ref="C6" r:id="rId6" display="C-style strings"/>
-    <hyperlink ref="C7" r:id="rId7" display="Introduction to pointers"/>
-    <hyperlink ref="C8" r:id="rId8" display="Null pointers"/>
-    <hyperlink ref="C9" r:id="rId9" display="Pointers and arrays"/>
-    <hyperlink ref="C10" r:id="rId10" display="Pointer arithmetic and array indexing"/>
-    <hyperlink ref="C11" r:id="rId11" display="C-style string symbolic constants"/>
-    <hyperlink ref="C12" r:id="rId12" display="Dynamic memory allocation with new and delete"/>
-    <hyperlink ref="C13" r:id="rId13" display="Dynamically allocating arrays"/>
-    <hyperlink ref="C14" r:id="rId14" display="Pointers and const"/>
-    <hyperlink ref="C15" r:id="rId15" display="Reference variables"/>
-    <hyperlink ref="C16" r:id="rId16" display="References and const"/>
-    <hyperlink ref="C17" r:id="rId17" display="Member selection with pointers and references"/>
-    <hyperlink ref="C18" r:id="rId18" display="For each loops"/>
-    <hyperlink ref="C19" r:id="rId19" display="Void pointers"/>
-    <hyperlink ref="C20" r:id="rId20" display="Pointers to pointers and dynamic multidimensional arrays"/>
-    <hyperlink ref="C21" r:id="rId21" display="An introduction to std::array"/>
-    <hyperlink ref="C22" r:id="rId22" display="An introduction to std::vector"/>
-    <hyperlink ref="C23" r:id="rId23" display="Chapter 6 comprehensive quiz"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Daily_plan/2019/06_jun/June.xlsx
+++ b/Daily_plan/2019/06_jun/June.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="110">
   <si>
     <t xml:space="preserve">Week_03</t>
   </si>
@@ -308,6 +308,9 @@
     <t xml:space="preserve"> 24-06-2019 to 28-06-2019</t>
   </si>
   <si>
+    <t xml:space="preserve">Actual Hours</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linked list to contain pointer to object instead of data</t>
   </si>
   <si>
@@ -339,6 +342,15 @@
   </si>
   <si>
     <t xml:space="preserve">25-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone, IT Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-06-2019</t>
   </si>
 </sst>
 </file>
@@ -660,14 +672,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,22 +2806,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.43877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.8673469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2142857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,7 +2849,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2877,7 +2888,9 @@
       <c r="E5" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -2914,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
@@ -2928,7 +2941,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
@@ -2942,7 +2955,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
@@ -2956,7 +2969,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
@@ -2970,7 +2983,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
@@ -3026,7 +3039,7 @@
         <v>2.5</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,7 +3055,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3050,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -3058,7 +3071,7 @@
         <v>2.5</v>
       </c>
       <c r="F18" s="12" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,7 +3081,7 @@
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">SUM(F3:F18)</f>
-        <v>6.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,7 +3089,7 @@
         <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,7 +3130,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" s="11" t="n">
         <v>0.8</v>
@@ -3217,7 +3230,7 @@
         <v>65</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D30" s="11" t="n">
         <v>1</v>
@@ -3234,10 +3247,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D31" s="11" t="n">
         <v>1</v>
@@ -3273,7 +3286,7 @@
         <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,40 +3326,58 @@
       <c r="B37" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+      <c r="C37" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E37" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="n">
         <v>2</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
+      <c r="C38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="11" t="n">
+        <v>0.9</v>
+      </c>
       <c r="E38" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="F38" s="12"/>
+      <c r="F38" s="12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="n">
         <v>3</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E39" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="12"/>
+      <c r="F39" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12"/>
@@ -3365,12 +3396,18 @@
       <c r="B41" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="E41" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="12"/>
+      <c r="F41" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12"/>
@@ -3382,19 +3419,25 @@
       <c r="E42" s="8"/>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="n">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
+      <c r="C43" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E43" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="n">
@@ -3403,27 +3446,39 @@
       <c r="B44" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
+      <c r="C44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E44" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="n">
         <v>3</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E45" s="12" t="n">
         <f aca="false">0.5</f>
         <v>0.5</v>
       </c>
-      <c r="F45" s="12"/>
+      <c r="F45" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="19"/>
@@ -3434,6 +3489,175 @@
       </c>
       <c r="F46" s="20" t="n">
         <f aca="false">SUM(F36:F45)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12"/>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12"/>
+      <c r="B54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12"/>
+      <c r="B56" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12" t="n">
+        <f aca="false">0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="E60" s="20" t="n">
+        <f aca="false">SUM(E50:E59)</f>
+        <v>8</v>
+      </c>
+      <c r="F60" s="20" t="n">
+        <f aca="false">SUM(F50:F59)</f>
         <v>0</v>
       </c>
     </row>
